--- a/passport.xlsx
+++ b/passport.xlsx
@@ -1092,6 +1092,68 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82/00/1909
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90/00/20M2
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3
+</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/passport.xlsx
+++ b/passport.xlsx
@@ -475,19 +475,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -511,13 +511,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -599,19 +599,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -623,7 +623,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -635,13 +635,13 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -661,19 +661,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -685,7 +685,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -697,13 +697,13 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -715,7 +715,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -723,19 +723,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -747,7 +747,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -759,13 +759,13 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -785,19 +785,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -809,7 +809,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -821,13 +821,13 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -839,7 +839,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -847,19 +847,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -871,7 +871,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -883,13 +883,13 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -909,19 +909,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">16/11/1990
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">30/03/2026
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">MOHAMMED BILAL
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
 </t>
         </is>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">P0193999
+          <t xml:space="preserve">J2383301
 </t>
         </is>
       </c>
@@ -945,13 +945,13 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad,Telangana
+          <t xml:space="preserve">Karnataka
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyderabad
+          <t xml:space="preserve">Bangalore
 </t>
         </is>
       </c>
@@ -963,7 +963,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIK
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -971,13 +971,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">82/00/1909
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">90/00/20M2
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">3
+          <t xml:space="preserve">M
 </t>
         </is>
       </c>
@@ -1033,13 +1033,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">82/00/1909
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">90/00/20M2
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">3
+          <t xml:space="preserve">M
 </t>
         </is>
       </c>
@@ -1095,13 +1095,13 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">82/00/1909
+          <t xml:space="preserve">28/08/1990
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">90/00/20M2
+          <t xml:space="preserve">08/09/2020
 </t>
         </is>
       </c>
@@ -1143,11 +1143,2181 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">3
+          <t xml:space="preserve">M
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/11/1990
+</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/03/2026
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED BILAL
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P0193999
+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad,Telangana
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad
+</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHAIK
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/11/1990
+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/03/2026
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED BILAL
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P0193999
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad,Telangana
+</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad
+</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHAIK
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/11/1990
+</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/03/2026
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED BILAL
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P0193999
+</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad,Telangana
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad
+</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHAIK
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16/11/1990
+</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30/03/2026
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED BILAL
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P0193999
+</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad,Telangana
+</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyderabad
+</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SHAIK
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28/08/1990
+</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08/09/2020
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOHAMMED WASEEMKPATEL
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IND
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J2383301
+</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P
+</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karnataka
+</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangalore
+</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M
+</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
